--- a/pred_ohlcv/54_21/2020-01-23 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3002120.171383968</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3002120.171383968</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3002320.171383968</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3001820.171383968</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3001820.171383968</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2380426.861983967</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2349425.861983967</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2352925.861983967</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2781558.768883967</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2357738.933683967</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2275853.301883967</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2294859.101883967</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2294359.101883967</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2317329.101883967</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2316629.101883967</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2340740.951883967</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2484221.501783967</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2441565.486483967</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2440671.656683967</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2165931.225397819</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2171969.619897819</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1067273.636583967</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1066773.636583967</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1191221.138183967</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1190721.138183967</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1196621.203270115</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1571831.006670115</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1571331.006670115</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1571331.006670115</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1645131.058070115</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1644631.058070115</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1673768.950870115</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1673768.950870115</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1933768.950870115</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1933268.950870115</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1933268.950870115</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2025108.650970115</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2025108.650970115</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2024608.650970115</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2025309.150670115</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2882752.408570115</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-7008854.897870115</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7133355.878570115</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-7269515.836970115</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7354248.828070115</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-7354048.828070115</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9513405.558470115</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-9844072.759370115</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3002120.171383968</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3002120.171383968</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3002320.171383968</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3001820.171383968</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3001820.171383968</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2292294.989083968</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2367384.528383967</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2368711.195983967</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2368711.195983967</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2380426.861983967</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2349425.861983967</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2352925.861983967</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2781558.768883967</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2357738.933683967</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2387043.301883967</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2275853.301883967</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2294359.101883967</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2317329.101883967</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2316629.101883967</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2441565.486483967</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2441565.486483967</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2441565.486483967</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2439165.486483967</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2440671.656683967</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2165931.225397819</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2171969.619897819</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1067273.636583967</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1066773.636583967</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1191221.138183967</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1190721.138183967</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1196621.203270115</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1571831.006670115</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1571331.006670115</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1571331.006670115</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1645131.058070115</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1644631.058070115</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1673768.950870115</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1673768.950870115</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1933768.950870115</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1933268.950870115</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1933268.950870115</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2025108.650970115</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-7008854.897870115</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7133355.878570115</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-7269515.836970115</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7354248.828070115</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-7354048.828070115</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7492095.972370114</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9513405.558470115</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9826335.558470115</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9817635.558470115</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-9844072.759370115</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-9873298.236876896</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
